--- a/FASE2/EVIDENCIAS_GRUPALES/MATRIZ CONTROL DE CAMBIO-2.xlsx
+++ b/FASE2/EVIDENCIAS_GRUPALES/MATRIZ CONTROL DE CAMBIO-2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Hoja1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Matriz de riesgo" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="72">
   <si>
     <t>Matriz Control de Cambio</t>
   </si>
@@ -127,13 +127,22 @@
     <t>Se debe poder cambiar la contrasena del usuario</t>
   </si>
   <si>
+    <t>RF-2</t>
+  </si>
+  <si>
+    <t>CU002</t>
+  </si>
+  <si>
+    <t>SC-04</t>
+  </si>
+  <si>
+    <t>el cliente debe poder editar los datos de su perfil</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>SC-04</t>
-  </si>
-  <si>
-    <t>el cliente debe poder editar los datos de su perfil</t>
+    <t>CU001</t>
   </si>
   <si>
     <t>SC-05</t>
@@ -162,13 +171,37 @@
     <t>Se modifica modelo base de datos, se agrega tabla PROMOCION_PRODUCTO</t>
   </si>
   <si>
+    <t>RF-11</t>
+  </si>
+  <si>
+    <t>CU-12</t>
+  </si>
+  <si>
     <t>SC-07</t>
   </si>
   <si>
+    <t>Se solicita agregar una vista que permita mostrar solo un producto con su detalle</t>
+  </si>
+  <si>
     <t>SC-08</t>
   </si>
   <si>
+    <t>Urgente</t>
+  </si>
+  <si>
+    <t>se solicita agregar una vista que permita al usuario mandar un mensaje de contacto</t>
+  </si>
+  <si>
+    <t>RF-14</t>
+  </si>
+  <si>
+    <t>CU014</t>
+  </si>
+  <si>
     <t>SC-09</t>
+  </si>
+  <si>
+    <t>se solicita el poder cargar un cupon de descuento aplicable a productos para descuento en precio final</t>
   </si>
   <si>
     <t>SC-10</t>
@@ -220,10 +253,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -247,6 +281,17 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -268,7 +313,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border/>
     <border>
       <left style="thin">
@@ -280,13 +325,6 @@
       </bottom>
     </border>
     <border>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFD0CECE"/>
-      </bottom>
-    </border>
-    <border>
-      <right/>
       <top/>
       <bottom style="thin">
         <color rgb="FFD0CECE"/>
@@ -310,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -318,30 +356,49 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="2" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="2" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -566,13 +623,13 @@
     <col customWidth="1" min="6" max="6" width="21.71"/>
     <col customWidth="1" min="7" max="7" width="89.0"/>
     <col customWidth="1" min="8" max="8" width="24.43"/>
-    <col customWidth="1" min="9" max="9" width="22.57"/>
+    <col customWidth="1" min="9" max="9" width="30.57"/>
     <col customWidth="1" min="10" max="10" width="29.86"/>
     <col customWidth="1" min="11" max="11" width="25.0"/>
     <col customWidth="1" min="12" max="26" width="10.71"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" ht="32.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -586,344 +643,483 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="3"/>
+      <c r="L1" s="2"/>
     </row>
     <row r="2" ht="44.25" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="9" t="s">
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+    </row>
+    <row r="3" ht="39.0" customHeight="1">
+      <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="9">
         <v>45942.0</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="9">
         <v>45947.0</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="9">
         <v>45947.0</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10" t="s">
+      <c r="E5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="8" t="s">
         <v>31</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>32</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
+        <v>33</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="9">
         <v>45948.0</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10" t="s">
+      <c r="E6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>32</v>
+      <c r="G6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" ht="27.75" customHeight="1">
+      <c r="A7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="10" t="s">
+      <c r="C7" s="11">
+        <v>45952.0</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="F7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
+      <c r="G7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
+      <c r="C8" s="11">
+        <v>45955.0</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
+      <c r="A9" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="13">
+        <v>45955.0</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="15"/>
+      <c r="L9" s="8" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="9" t="s">
-        <v>44</v>
+      <c r="A10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="16">
+        <v>45957.0</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="9" t="s">
-        <v>45</v>
+      <c r="A11" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="18">
+        <v>45932.0</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="9" t="s">
-        <v>46</v>
+      <c r="A12" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="D12" s="12" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="9" t="s">
-        <v>47</v>
-      </c>
+      <c r="A13" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="D13" s="19"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>48</v>
-      </c>
+      <c r="A14" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="D14" s="19"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="9" t="s">
-        <v>49</v>
-      </c>
+      <c r="A15" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="D15" s="19"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="9" t="s">
-        <v>50</v>
-      </c>
+      <c r="A16" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="G16" s="12"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="9" t="s">
-        <v>51</v>
-      </c>
+      <c r="A17" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="D17" s="19"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="9" t="s">
-        <v>52</v>
-      </c>
+      <c r="A18" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="D18" s="19"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="9" t="s">
-        <v>53</v>
-      </c>
+      <c r="A19" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="D19" s="19"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="9" t="s">
-        <v>54</v>
-      </c>
+      <c r="A20" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="D20" s="19"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="9" t="s">
-        <v>55</v>
-      </c>
+      <c r="A21" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="D21" s="19"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>56</v>
-      </c>
+      <c r="A22" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="D22" s="19"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="9" t="s">
-        <v>57</v>
-      </c>
+      <c r="A23" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="D23" s="19"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="9" t="s">
-        <v>58</v>
-      </c>
+      <c r="A24" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="D24" s="19"/>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="9" t="s">
-        <v>59</v>
-      </c>
+      <c r="A25" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="D25" s="19"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>60</v>
-      </c>
+      <c r="A26" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="19"/>
+      <c r="D26" s="19"/>
     </row>
     <row r="27" ht="14.25" customHeight="1"/>
     <row r="28" ht="14.25" customHeight="1"/>
@@ -1903,6 +2099,14 @@
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B3:B26">
+      <formula1>"Equipo de desarrollo,Cliente"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D3:D26">
+      <formula1>"C,SC"</formula1>
+    </dataValidation>
+  </dataValidations>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
